--- a/dynamic-array-text-functions-excel-demo.xlsx
+++ b/dynamic-array-text-functions-excel-demo.xlsx
@@ -8,19 +8,72 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E81143D3-470E-43A5-90AC-2888C20822F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF2AD10-27BB-4C85-B2C3-20FD21FBEECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="textbefore" sheetId="2" r:id="rId2"/>
+    <sheet name="textafter" sheetId="3" r:id="rId3"/>
+    <sheet name="textsplit" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="65">
   <si>
     <t>Customer ID</t>
   </si>
@@ -167,6 +220,54 @@
   </si>
   <si>
     <t>Excellent! Best purchase I've made this year!</t>
+  </si>
+  <si>
+    <t>John Smith</t>
+  </si>
+  <si>
+    <t>Alice Johnson</t>
+  </si>
+  <si>
+    <t>Bob Williams</t>
+  </si>
+  <si>
+    <t>hello-goodbye-bye</t>
+  </si>
+  <si>
+    <t>one-two-three-four</t>
+  </si>
+  <si>
+    <t>up-down-left-right</t>
+  </si>
+  <si>
+    <t>document.pdf</t>
+  </si>
+  <si>
+    <t>image.jpeg</t>
+  </si>
+  <si>
+    <t>report.docx</t>
+  </si>
+  <si>
+    <t>Deluxe Widget, now with $10 discount, only $29.99</t>
+  </si>
+  <si>
+    <t>Basic Gadget, was $49.99, now $39.99</t>
+  </si>
+  <si>
+    <t>Super Tool, $19.99</t>
+  </si>
+  <si>
+    <t>Director: James Cameron, Lead Actor: Leonardo DiCaprio, Producer: Jon Landau</t>
+  </si>
+  <si>
+    <t>Screenwriter: Joss Whedon, Composer: Hans Zimmer, Editor: Dan Lebental</t>
+  </si>
+  <si>
+    <t>Paris, 05/01, Louvre; Rome, 05/03, Colosseum; Athens, 05/05, Acropolis</t>
+  </si>
+  <si>
+    <t>Tokyo, 06/01, Sushi Making; Kyoto, 06/03, Bamboo Forest; Osaka, 06/05, Castle Tour</t>
   </si>
 </sst>
 </file>
@@ -234,6 +335,20 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -262,20 +377,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -289,8 +390,70 @@
 </styleSheet>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>,</v>
+    <v>2</v>
+    <v>625</v>
+    <v>6</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_error">
+    <k n="argument" t="s"/>
+    <k n="errorType" t="i"/>
+    <k n="iftab" t="i"/>
+    <k n="subType" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{49199561-1A02-46C4-8EB9-8BB2CCC8B007}" name="Table1" displayName="Table1" ref="A1:F11" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{49199561-1A02-46C4-8EB9-8BB2CCC8B007}" name="Table1" displayName="Table1" ref="A1:F11" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A1:F11" xr:uid="{49199561-1A02-46C4-8EB9-8BB2CCC8B007}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{9DF927E7-84F1-4119-A2D3-7C04E350F3C2}" name="Customer ID"/>
@@ -593,17 +756,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.73046875" customWidth="1"/>
-    <col min="3" max="3" width="14.06640625" customWidth="1"/>
-    <col min="4" max="4" width="14.19921875" customWidth="1"/>
-    <col min="6" max="6" width="10.265625" customWidth="1"/>
+    <col min="1" max="1" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.46484375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
@@ -832,4 +996,285 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81BFD86-C6E7-4586-82F6-323FFE92F6F0}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="str">
+        <f>_xlfn.TEXTBEFORE(A1, " ")</f>
+        <v>John</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B3" si="0">_xlfn.TEXTBEFORE(A2, " ")</f>
+        <v>Alice</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>Bob</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="str">
+        <f>_xlfn.TEXTBEFORE(A5, "-", 1)</f>
+        <v>hello</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" ref="B6:B7" si="1">_xlfn.TEXTBEFORE(A6, "-", 1)</f>
+        <v>one</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="1"/>
+        <v>up</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="str">
+        <f>_xlfn.TEXTBEFORE(A9, "-", -1)</f>
+        <v>hello-goodbye</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" ref="B10:B11" si="2">_xlfn.TEXTBEFORE(A10, "-", -1)</f>
+        <v>one-two-three</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="2"/>
+        <v>up-down-left</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C301C9C-78CD-4091-8CAC-168E4E96DE8C}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="str">
+        <f>_xlfn.TEXTAFTER(A1, " ")</f>
+        <v>Smith</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B3" si="0">_xlfn.TEXTAFTER(A2, " ")</f>
+        <v>Johnson</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>Williams</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="str">
+        <f>_xlfn.TEXTAFTER(A5, ".", 1)</f>
+        <v>pdf</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" ref="B6:B7" si="1">_xlfn.TEXTAFTER(A6, ".", 1)</f>
+        <v>jpeg</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="1"/>
+        <v>docx</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="str">
+        <f>_xlfn.TEXTAFTER(A9, "$", -1)</f>
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" ref="B10:B11" si="2">_xlfn.TEXTAFTER(A10, "$", -1)</f>
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="2"/>
+        <v>19.99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A993E57A-86FA-453B-AF59-D311C0C71E89}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="64.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="str" cm="1">
+        <f t="array" ref="B5:D5">_xlfn.TEXTSPLIT(A5, ",")</f>
+        <v>Director: James Cameron</v>
+      </c>
+      <c r="C5" t="str">
+        <v xml:space="preserve"> Lead Actor: Leonardo DiCaprio</v>
+      </c>
+      <c r="D5" t="str">
+        <v xml:space="preserve"> Producer: Jon Landau</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" t="str" cm="1">
+        <f t="array" ref="B6:D6">_xlfn.TEXTSPLIT(A6, ",")</f>
+        <v>Screenwriter: Joss Whedon</v>
+      </c>
+      <c r="C6" t="str">
+        <v xml:space="preserve"> Composer: Hans Zimmer</v>
+      </c>
+      <c r="D6" t="str">
+        <v xml:space="preserve"> Editor: Dan Lebental</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" t="e" cm="1" vm="1">
+        <f t="array" ref="B8">_xlfn.TEXTSPLIT(A8, ";",,",")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" t="e" cm="1" vm="1">
+        <f t="array" ref="B9">_xlfn.TEXTSPLIT(A9, ";",,",")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/dynamic-array-text-functions-excel-demo.xlsx
+++ b/dynamic-array-text-functions-excel-demo.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF2AD10-27BB-4C85-B2C3-20FD21FBEECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5934752-6507-4AB9-9B43-58DC2D076005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="textbefore" sheetId="2" r:id="rId2"/>
-    <sheet name="textafter" sheetId="3" r:id="rId3"/>
-    <sheet name="textsplit" sheetId="4" r:id="rId4"/>
+    <sheet name="textjoin" sheetId="5" r:id="rId3"/>
+    <sheet name="textafter" sheetId="3" r:id="rId4"/>
+    <sheet name="textsplit" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1099,6 +1100,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5221B617-C9B6-4A6A-A3DB-06E7A792ACE3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C301C9C-78CD-4091-8CAC-168E4E96DE8C}">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -1198,12 +1211,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A993E57A-86FA-453B-AF59-D311C0C71E89}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A9"/>
+    <sheetView topLeftCell="A2" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
